--- a/02 - REQUETAGE/employes(2)_jeu_de_donnee.xlsx
+++ b/02 - REQUETAGE/employes(2)_jeu_de_donnee.xlsx
@@ -462,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -581,17 +581,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,7 +898,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>54</v>
       </c>
       <c r="S1" t="s">
@@ -1120,8 +1129,8 @@
         <v>30</v>
       </c>
       <c r="I12" t="str">
-        <f>"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A12&amp;","""&amp;B12&amp;""","""&amp;C12&amp;""","&amp;IF(ISBLANK(D12),"null",D12)&amp;","""&amp;TEXT(E12,"AAAA-MM-JJ")&amp;""","&amp;F12&amp;","&amp;IF(ISBLANK(G12),"null",G12)&amp;","&amp;H12&amp;");"</f>
-        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (1,"Costanza","psychologue",8,"1994-10-19",1715,200,30);</v>
+        <f>"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A12&amp;","""&amp;B12&amp;""","""&amp;C12&amp;""","&amp;IF(ISBLANK(D12),"null",D12)&amp;","""&amp;TEXT(E12,"AAAA-MM-JJ")&amp;""","&amp;F12&amp;","&amp;IF(ISBLANK(G12),"null",TEXT(G12*100,"###0.00"))&amp;","&amp;H12&amp;");"</f>
+        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (1,"Costanza","psychologue",8,"1994-10-19",1715,200.00,30);</v>
       </c>
       <c r="S12" s="6">
         <v>7</v>
@@ -1159,8 +1168,8 @@
         <v>20</v>
       </c>
       <c r="I13" t="str">
-        <f>"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A13&amp;","""&amp;B13&amp;""","""&amp;C13&amp;""","&amp;IF(ISBLANK(D13),"null",D13)&amp;","""&amp;TEXT(E13,"AAAA-MM-JJ")&amp;""","&amp;F13&amp;","&amp;IF(ISBLANK(G13),"null",G13)&amp;","&amp;H13&amp;");"</f>
-        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (2,"Mioche","Directeur",6,"1990-03-15",2200,1000,20);</v>
+        <f t="shared" ref="I13:I29" si="0">"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A13&amp;","""&amp;B13&amp;""","""&amp;C13&amp;""","&amp;IF(ISBLANK(D13),"null",D13)&amp;","""&amp;TEXT(E13,"AAAA-MM-JJ")&amp;""","&amp;F13&amp;","&amp;IF(ISBLANK(G13),"null",TEXT(G13*100,"###0.00"))&amp;","&amp;H13&amp;");"</f>
+        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (2,"Mioche","Directeur",6,"1990-03-15",2200,1000.00,20);</v>
       </c>
       <c r="S13" s="6">
         <v>8</v>
@@ -1198,8 +1207,8 @@
         <v>10</v>
       </c>
       <c r="I14" t="str">
-        <f>"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A14&amp;","""&amp;B14&amp;""","""&amp;C14&amp;""","&amp;IF(ISBLANK(D14),"null",D14)&amp;","""&amp;TEXT(E14,"AAAA-MM-JJ")&amp;""","&amp;F14&amp;","&amp;IF(ISBLANK(G14),"null",G14)&amp;","&amp;H14&amp;");"</f>
-        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (3,"Durand","Responsable",2,"1996-04-18",3250,0,10);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (3,"Durand","Responsable",2,"1996-04-18",3250,0.00,10);</v>
       </c>
       <c r="S14" s="6">
         <v>8</v>
@@ -1237,8 +1246,8 @@
         <v>30</v>
       </c>
       <c r="I15" t="str">
-        <f>"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A15&amp;","""&amp;B15&amp;""","""&amp;C15&amp;""","&amp;IF(ISBLANK(D15),"null",D15)&amp;","""&amp;TEXT(E15,"AAAA-MM-JJ")&amp;""","&amp;F15&amp;","&amp;IF(ISBLANK(G15),"null",G15)&amp;","&amp;H15&amp;");"</f>
-        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (4,"Xiong","vendeur",5,"1994-12-15",1150,200,30);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (4,"Xiong","vendeur",5,"1994-12-15",1150,200.00,30);</v>
       </c>
       <c r="S15" s="6">
         <v>8</v>
@@ -1276,8 +1285,8 @@
         <v>30</v>
       </c>
       <c r="I16" t="str">
-        <f>"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A16&amp;","""&amp;B16&amp;""","""&amp;C16&amp;""","&amp;IF(ISBLANK(D16),"null",D16)&amp;","""&amp;TEXT(E16,"AAAA-MM-JJ")&amp;""","&amp;F16&amp;","&amp;IF(ISBLANK(G16),"null",G16)&amp;","&amp;H16&amp;");"</f>
-        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (5,"Manoukian","vendeur",11,"1993-08-15",2530,500,30);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (5,"Manoukian","vendeur",11,"1993-08-15",2530,500.00,30);</v>
       </c>
       <c r="S16" s="6">
         <v>10</v>
@@ -1315,8 +1324,8 @@
         <v>40</v>
       </c>
       <c r="I17" t="str">
-        <f>"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A17&amp;","""&amp;B17&amp;""","""&amp;C17&amp;""","&amp;IF(ISBLANK(D17),"null",D17)&amp;","""&amp;TEXT(E17,"AAAA-MM-JJ")&amp;""","&amp;F17&amp;","&amp;IF(ISBLANK(G17),"null",G17)&amp;","&amp;H17&amp;");"</f>
-        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (6,"Bourdais","directeur",15,"2002-07-12",3550,850,40);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (6,"Bourdais","directeur",15,"2002-07-12",3550,850.00,40);</v>
       </c>
       <c r="S17" s="6">
         <v>11</v>
@@ -1354,8 +1363,8 @@
         <v>10</v>
       </c>
       <c r="I18" t="str">
-        <f>"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A18&amp;","""&amp;B18&amp;""","""&amp;C18&amp;""","&amp;IF(ISBLANK(D18),"null",D18)&amp;","""&amp;TEXT(E18,"AAAA-MM-JJ")&amp;""","&amp;F18&amp;","&amp;IF(ISBLANK(G18),"null",G18)&amp;","&amp;H18&amp;");"</f>
-        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (7,"Moreno","ouvrier",3,"1999-05-05",1075,50,10);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (7,"Moreno","ouvrier",3,"1999-05-05",1075,50.00,10);</v>
       </c>
       <c r="S18" s="6">
         <v>11</v>
@@ -1393,8 +1402,8 @@
         <v>10</v>
       </c>
       <c r="I19" t="str">
-        <f>"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A19&amp;","""&amp;B19&amp;""","""&amp;C19&amp;""","&amp;IF(ISBLANK(D19),"null",D19)&amp;","""&amp;TEXT(E19,"AAAA-MM-JJ")&amp;""","&amp;F19&amp;","&amp;IF(ISBLANK(G19),"null",G19)&amp;","&amp;H19&amp;");"</f>
-        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (8,"Perou","directeur",2,"1995-07-05",2450,800,10);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (8,"Perou","directeur",2,"1995-07-05",2450,800.00,10);</v>
       </c>
       <c r="S19" s="6">
         <v>11</v>
@@ -1430,7 +1439,7 @@
         <v>20</v>
       </c>
       <c r="I20" t="str">
-        <f>"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A20&amp;","""&amp;B20&amp;""","""&amp;C20&amp;""","&amp;IF(ISBLANK(D20),"null",D20)&amp;","""&amp;TEXT(E20,"AAAA-MM-JJ")&amp;""","&amp;F20&amp;","&amp;IF(ISBLANK(G20),"null",G20)&amp;","&amp;H20&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (9,"Bibaut","chef de service",8,"1993-06-07",2200,null,20);</v>
       </c>
       <c r="S20" s="6">
@@ -1469,8 +1478,8 @@
         <v>10</v>
       </c>
       <c r="I21" t="str">
-        <f>"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A21&amp;","""&amp;B21&amp;""","""&amp;C21&amp;""","&amp;IF(ISBLANK(D21),"null",D21)&amp;","""&amp;TEXT(E21,"AAAA-MM-JJ")&amp;""","&amp;F21&amp;","&amp;IF(ISBLANK(G21),"null",G21)&amp;","&amp;H21&amp;");"</f>
-        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (10,"Manian","assistant",9,"1996-10-18",1000,250,10);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (10,"Manian","assistant",9,"1996-10-18",1000,250.00,10);</v>
       </c>
       <c r="S21" s="6">
         <v>13</v>
@@ -1508,8 +1517,8 @@
         <v>30</v>
       </c>
       <c r="I22" t="str">
-        <f>"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A22&amp;","""&amp;B22&amp;""","""&amp;C22&amp;""","&amp;IF(ISBLANK(D22),"null",D22)&amp;","""&amp;TEXT(E22,"AAAA-MM-JJ")&amp;""","&amp;F22&amp;","&amp;IF(ISBLANK(G22),"null",G22)&amp;","&amp;H22&amp;");"</f>
-        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (11,"Colin","analyste",2,"1992-07-05",2702,625,30);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (11,"Colin","analyste",2,"1992-07-05",2702,625.00,30);</v>
       </c>
       <c r="S22" s="6">
         <v>13</v>
@@ -1547,8 +1556,8 @@
         <v>20</v>
       </c>
       <c r="I23" t="str">
-        <f>"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A23&amp;","""&amp;B23&amp;""","""&amp;C23&amp;""","&amp;IF(ISBLANK(D23),"null",D23)&amp;","""&amp;TEXT(E23,"AAAA-MM-JJ")&amp;""","&amp;F23&amp;","&amp;IF(ISBLANK(G23),"null",G23)&amp;","&amp;H23&amp;");"</f>
-        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (12,"Coulon","ouvrier",8,"2002-09-18",858,125,20);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (12,"Coulon","ouvrier",8,"2002-09-18",858,125.00,20);</v>
       </c>
       <c r="S23" s="6">
         <v>14</v>
@@ -1586,8 +1595,8 @@
         <v>10</v>
       </c>
       <c r="I24" t="str">
-        <f>"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A24&amp;","""&amp;B24&amp;""","""&amp;C24&amp;""","&amp;IF(ISBLANK(D24),"null",D24)&amp;","""&amp;TEXT(E24,"AAAA-MM-JJ")&amp;""","&amp;F24&amp;","&amp;IF(ISBLANK(G24),"null",G24)&amp;","&amp;H24&amp;");"</f>
-        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (13,"Roméo","assistant",8,"2001-08-16",1025,1150,10);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (13,"Roméo","assistant",8,"2001-08-16",1025,1150.00,10);</v>
       </c>
       <c r="S24" s="6">
         <v>15</v>
@@ -1623,7 +1632,7 @@
         <v>20</v>
       </c>
       <c r="I25" t="str">
-        <f>"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A25&amp;","""&amp;B25&amp;""","""&amp;C25&amp;""","&amp;IF(ISBLANK(D25),"null",D25)&amp;","""&amp;TEXT(E25,"AAAA-MM-JJ")&amp;""","&amp;F25&amp;","&amp;IF(ISBLANK(G25),"null",G25)&amp;","&amp;H25&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (14,"Solal","secrétaire",3,"1992-02-15",1225,null,20);</v>
       </c>
       <c r="S25" s="6">
@@ -1660,8 +1669,8 @@
         <v>40</v>
       </c>
       <c r="I26" t="str">
-        <f>"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A26&amp;","""&amp;B26&amp;""","""&amp;C26&amp;""","&amp;IF(ISBLANK(D26),"null",D26)&amp;","""&amp;TEXT(E26,"AAAA-MM-JJ")&amp;""","&amp;F26&amp;","&amp;IF(ISBLANK(G26),"null",G26)&amp;","&amp;H26&amp;");"</f>
-        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (15,"Bailly","Président",null,"1985-01-05",4275,2000,40);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (15,"Bailly","Président",null,"1985-01-05",4275,2000.00,40);</v>
       </c>
       <c r="S26" s="6">
         <v>16</v>
@@ -1697,7 +1706,7 @@
         <v>10</v>
       </c>
       <c r="I27" t="str">
-        <f>"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A27&amp;","""&amp;B27&amp;""","""&amp;C27&amp;""","&amp;IF(ISBLANK(D27),"null",D27)&amp;","""&amp;TEXT(E27,"AAAA-MM-JJ")&amp;""","&amp;F27&amp;","&amp;IF(ISBLANK(G27),"null",G27)&amp;","&amp;H27&amp;");"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (16,"Jazarin","Ouvrier",2,"2001-07-05",875,null,10);</v>
       </c>
       <c r="S27" s="6">
@@ -1736,8 +1745,8 @@
         <v>10</v>
       </c>
       <c r="I28" t="str">
-        <f>"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A28&amp;","""&amp;B28&amp;""","""&amp;C28&amp;""","&amp;IF(ISBLANK(D28),"null",D28)&amp;","""&amp;TEXT(E28,"AAAA-MM-JJ")&amp;""","&amp;F28&amp;","&amp;IF(ISBLANK(G28),"null",G28)&amp;","&amp;H28&amp;");"</f>
-        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (17,"Font","Ouvrier",2,"1990-08-04",1200,250,10);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (17,"Font","Ouvrier",2,"1990-08-04",1200,250.00,10);</v>
       </c>
       <c r="S28" s="6">
         <v>18</v>
@@ -1775,8 +1784,8 @@
         <v>30</v>
       </c>
       <c r="I29" t="str">
-        <f>"INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES ("&amp;A29&amp;","""&amp;B29&amp;""","""&amp;C29&amp;""","&amp;IF(ISBLANK(D29),"null",D29)&amp;","""&amp;TEXT(E29,"AAAA-MM-JJ")&amp;""","&amp;F29&amp;","&amp;IF(ISBLANK(G29),"null",G29)&amp;","&amp;H29&amp;");"</f>
-        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (18,"Servel","ouvrier",3,"1998-12-02",1025,55,30);</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO employe(noemp,nomemp,fonction,noresp,datemb,sala,comm,nodep) VALUES (18,"Servel","ouvrier",3,"1998-12-02",1025,55.00,30);</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1784,118 +1793,118 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+    <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18">
         <v>1</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="43">
         <v>0</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="44">
         <v>1000</v>
       </c>
       <c r="F33" t="str">
-        <f>"INSERT INTO grade(nograde, salmin, salmax) VALUES ("&amp;A33&amp;","&amp;B33&amp;","&amp;C33&amp;");"</f>
-        <v>INSERT INTO grade(nograde, salmin, salmax) VALUES (1,0,1000);</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+        <f>"INSERT INTO grade(nograde, salmin, salmax) VALUES ("&amp;A33&amp;","&amp;TEXT(B33*100,"###0.00")&amp;","&amp;TEXT(C33*100,"###0.00")&amp;");"</f>
+        <v>INSERT INTO grade(nograde, salmin, salmax) VALUES (1,0.00,1000.00);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18">
         <v>2</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="43">
         <v>1000.01</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="44">
         <v>2000</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" ref="F34:F38" si="0">"INSERT INTO grade(nograde, salmin, salmax) VALUES ("&amp;A34&amp;","&amp;B34&amp;","&amp;C34&amp;");"</f>
-        <v>INSERT INTO grade(nograde, salmin, salmax) VALUES (2,1000,01,2000);</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+        <f t="shared" ref="F34:F38" si="1">"INSERT INTO grade(nograde, salmin, salmax) VALUES ("&amp;A34&amp;","&amp;TEXT(B34*100,"###0.00")&amp;","&amp;TEXT(C34*100,"###0.00")&amp;");"</f>
+        <v>INSERT INTO grade(nograde, salmin, salmax) VALUES (2,1000.01,2000.00);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18">
         <v>3</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="43">
         <v>2000.01</v>
       </c>
-      <c r="C35" s="41">
+      <c r="C35" s="44">
         <v>3000</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO grade(nograde, salmin, salmax) VALUES (3,2000,01,3000);</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO grade(nograde, salmin, salmax) VALUES (3,2000.01,3000.00);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18">
         <v>4</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="43">
         <v>3000.01</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="44">
         <v>4000</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO grade(nograde, salmin, salmax) VALUES (4,3000,01,4000);</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO grade(nograde, salmin, salmax) VALUES (4,3000.01,4000.00);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18">
         <v>5</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="43">
         <v>4000.01</v>
       </c>
-      <c r="C37" s="41">
+      <c r="C37" s="44">
         <v>5000</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO grade(nograde, salmin, salmax) VALUES (5,4000,01,5000);</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO grade(nograde, salmin, salmax) VALUES (5,4000.01,5000.00);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20">
         <v>6</v>
       </c>
-      <c r="B38" s="38">
+      <c r="B38" s="45">
         <v>5000.01</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="46">
         <v>6000</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO grade(nograde, salmin, salmax) VALUES (6,5000,01,6000);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO grade(nograde, salmin, salmax) VALUES (6,5000.01,6000.00);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="D39" t="str">
-        <f>"INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES ("&amp;A42&amp;","""&amp;TEXT(B42,"AAAA-MM-JJ")&amp;""","""&amp;C42&amp;""");"</f>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (1,"1994-10-19","vendeur");</v>
+        <f>"INSERT INTO histofonction(noemp, date_nom, fonction) VALUES ("&amp;A42&amp;","""&amp;TEXT(B42,"AAAA-MM-JJ")&amp;""","""&amp;C42&amp;""");"</f>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (1,"1994-10-19","vendeur");</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D40" t="str">
-        <f t="shared" ref="D40:D64" si="1">"INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES ("&amp;A43&amp;","""&amp;TEXT(B43,"AAAA-MM-JJ")&amp;""","""&amp;C43&amp;""");"</f>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (1,"1996-12-18","psychologue");</v>
+        <f t="shared" ref="D40:D64" si="2">"INSERT INTO histofonction(noemp, date_nom, fonction) VALUES ("&amp;A43&amp;","""&amp;TEXT(B43,"AAAA-MM-JJ")&amp;""","""&amp;C43&amp;""");"</f>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (1,"1996-12-18","psychologue");</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1909,8 +1918,8 @@
         <v>51</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (2,"1990-03-15","responsable");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (2,"1990-03-15","responsable");</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1924,8 +1933,8 @@
         <v>24</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (2,"1994-10-18","directeur");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (2,"1994-10-18","directeur");</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1939,8 +1948,8 @@
         <v>18</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (3,"1996-04-18","vendeur");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (3,"1996-04-18","vendeur");</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1954,8 +1963,8 @@
         <v>52</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (3,"1998-06-18","responsable");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (3,"1998-06-18","responsable");</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1969,8 +1978,8 @@
         <v>27</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (4,"1994-12-15","vendeur");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (4,"1994-12-15","vendeur");</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1984,8 +1993,8 @@
         <v>24</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (5,"1993-08-15","vendeur");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (5,"1993-08-15","vendeur");</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1999,8 +2008,8 @@
         <v>52</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (6,"2002-07-12","directeur");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (6,"2002-07-12","directeur");</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2014,8 +2023,8 @@
         <v>24</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (7,"1999-05-05","ouvrier");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (7,"1999-05-05","ouvrier");</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2029,8 +2038,8 @@
         <v>24</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (8,"1995-07-05","vendeur");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (8,"1995-07-05","vendeur");</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2044,8 +2053,8 @@
         <v>27</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (8,"1997-04-15","responsable");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (8,"1997-04-15","responsable");</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2059,8 +2068,8 @@
         <v>29</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (8,"1999-10-18","directeur");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (8,"1999-10-18","directeur");</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2074,8 +2083,8 @@
         <v>24</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (10,"1996-10-18","assistant");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (10,"1996-10-18","assistant");</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2089,8 +2098,8 @@
         <v>52</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (11,"1992-07-05","vendeur");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (11,"1992-07-05","vendeur");</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2104,8 +2113,8 @@
         <v>27</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (11,"1995-07-15","responsable");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (11,"1995-07-15","responsable");</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2119,8 +2128,8 @@
         <v>34</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (11,"1999-05-19","analyste");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (11,"1999-05-19","analyste");</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2134,8 +2143,8 @@
         <v>24</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (12,"2002-09-18","ouvrier");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (12,"2002-09-18","ouvrier");</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2149,8 +2158,8 @@
         <v>52</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (13,"2001-08-16","ouvrier");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (13,"2001-08-16","ouvrier");</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2164,8 +2173,8 @@
         <v>36</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (13,"2003-07-17","assistant");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (13,"2003-07-17","assistant");</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2179,8 +2188,8 @@
         <v>29</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (14,"1992-01-02","secrétaire");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (14,"1992-01-02","secrétaire");</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2194,8 +2203,8 @@
         <v>29</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (15,"1985-01-05","directeur");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (15,"1985-01-05","directeur");</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2209,8 +2218,8 @@
         <v>34</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (15,"1995-10-05","président");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (15,"1995-10-05","président");</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2224,8 +2233,8 @@
         <v>40</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (16,"2001-07-05","ouvrier");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (16,"2001-07-05","ouvrier");</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2239,8 +2248,8 @@
         <v>27</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (17,"1990-08-04","ouvrier");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (17,"1990-08-04","ouvrier");</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2254,8 +2263,8 @@
         <v>53</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO histofonctions(noemp, date_nom, fonction) VALUES (18,"1998-12-02","ouvrier");</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO histofonction(noemp, date_nom, fonction) VALUES (18,"1998-12-02","ouvrier");</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
